--- a/docs/PrioridadesDasFuncionalidades.xlsx
+++ b/docs/PrioridadesDasFuncionalidades.xlsx
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/docs/PrioridadesDasFuncionalidades.xlsx
+++ b/docs/PrioridadesDasFuncionalidades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -75,25 +75,13 @@
     <t>RF017</t>
   </si>
   <si>
+    <t>RF019</t>
+  </si>
+  <si>
+    <t>RF020</t>
+  </si>
+  <si>
     <t>RF018</t>
-  </si>
-  <si>
-    <t>RF019</t>
-  </si>
-  <si>
-    <t>RF020</t>
-  </si>
-  <si>
-    <t>RF021</t>
-  </si>
-  <si>
-    <t>RF022</t>
-  </si>
-  <si>
-    <t>RF023</t>
-  </si>
-  <si>
-    <t>RF024</t>
   </si>
 </sst>
 </file>
@@ -433,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
@@ -578,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
@@ -586,12 +574,12 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -599,49 +587,17 @@
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
         <v>9</v>
       </c>
     </row>
